--- a/cube_statistics.xlsx
+++ b/cube_statistics.xlsx
@@ -445,425 +445,425 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01495862007141113</v>
+        <v>0.004077911376953125</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R B R R B U D R B B F L R R F B D D2 R2 B R D D2 F L2 R F R R F U L R D F2 R2 F B F B</t>
+          <t>F U L U L D U2 F R2 U U B L R L2 B R B F B D B D D2 R R2 B U B L2 D L F L L L U2 F2 B D</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B2 U2 R U' R' F D' U R U' R' F D2 L U' L' R U' R' F D L U L' U2 R U2 R' U R U' R' D' U2 R U R' D' R U U' R' D' U' R U R' D' U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U' R' F R F' R U R' y U' R U' R' F R' F' R y F U R U' R' F' U R' U' R U' R' U' L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>U F2 D' U' R U' R' F D' U2 R U' R' F D' L' U' L R U' R' F D U' R U' R' D' R U R' D' U' R U2 R' U R U' R' D' U2 R U R' D' U2 R' F R F' R U R' y R' F R F' R U R' y U R U' R' F R' F' R y R' F R F' R U R' y U F U R U' U R' U' R U R' U' R U R' U' F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01394271850585938</v>
+        <v>0.00500178337097168</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D F2 F2 D2 B L F2 R L R2 B R R U U L2 B B2 B U U F U R2 F2 L F B F U F R F L2 U R B R U2 B</t>
+          <t>D2 F L L D B2 L2 R R D F B U2 F L B2 D2 R U B2 L2 F U F B L2 B U D D R F2 L2 F L B B L L U</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>D' L U' L' R U' R' F D' F2 D' U2 F2 D L U L' U2 R U' R' D' R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' R U R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2</t>
+          <t>R R' F D' F2 D' R2 U R U' R' F D' L' U' L R U' R' F D R U R' U' R U R' D' R U R' D' U R U R' D' U2 R U2 R' U R U' R' D' U R' F R F' R U R' y R U' R' F R' F' R y U R U' R' F R' F' R y R' F R F' R U R' y F U R U' R' F' U' R2 D' R U2 R' D R U2 R U' R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0139772891998291</v>
+        <v>0.005003213882446289</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R2 B R D F D2 U2 B2 U L2 B2 U R L U R B2 U B2 B L2 F D F2 D R D B U R2 L U R U U D D B2 F R</t>
+          <t>U F U R B D D R U2 B F D2 D D R B R R L F2 B R R2 L D U B2 R F R U B2 B D D U R2 B F2 L2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R' U R F2 D2 U R U' R' F D' L U' L' F2 D R U U2 R' U R U' R' D' R U2 R' U R U' R' D' U R U' R' D' U R U2 R' U R U' R' D' R' F R F' R U R' U R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U R U' R' F R' F' R y U R U' R' F R' F' R y U2 F U R U' R' F' U R2 D' R U2 R' D R U2 R U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>U' F2 D' L U' L' F2 D' R' U R F2 D' U F2 D U R U' R' D' L U L' U2 R U2 R' U R U' R' D' R U' R' D' U R U2 R' U R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y U R' F R F' R U R' y U2 R U' R' F R' F' R y U' R U' R' F R' F' R y U' F U R U' R' F' U2 R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.009971380233764648</v>
+        <v>0.004996061325073242</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D R D B R F L B2 L2 D U B2 L L F B2 B B2 B F U U L D U2 L2 B R2 B2 R B2 D2 D F L B U L2 U B</t>
+          <t>R2 L B B L2 D2 R L L D U R2 B F L D U2 R D D L2 U D D B D F2 D2 B D B2 U F U R L B2 R D2 F</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>L U' L' F2 D' U' F2 D' U' F2 D' U' R U' R' F D R U R' D' R' U R U2 R U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' R U' R' D' R' F R F' R U R' y R U' R' F R' F' R y U2 R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' F' R' U2 R' D' R U2 R' D R2 U' R U' R U R U R U' R' U' R2 U</t>
+          <t>U2 F2 D' B2 U2 R U' R' F D' F2 R U' R' F D' F2 R U' R' F D U' R U2 R' U R U' R' D' U R U R' D' R U R' U' R U R' D' U' R U2 R' U R U' R' D' U R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y U' R' F R F' R U R' y U2 R' F R F' R U R' y U2 R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0139625072479248</v>
+        <v>0.004001140594482422</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R2 B F B B R F F F2 U B F L L D D2 L2 B2 U D U D2 L L B2 F L2 U R R D2 F L2 R2 L D2 L U B R</t>
+          <t>L R D L R U U2 D B F F U B D D B R2 B D L F D F2 D2 L F B2 R B R R U2 R B F F F L R R</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R R' F D' B2 U2 F2 D' U2 F2 D' F2 D R U U' R' D' R U R' D' U R U2 R' U R U' R' D' U R U R' D' R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' R U' R' F R' F' R y F U R U' R' F' R U2 R2 U' R2 U' R2 U' L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U'</t>
+          <t>U' F2 D' R U R' F2 D' U F2 D' U2 F2 D R' U R U2 R U' R' D' R U' R' D' R U U2 R' U R U' R' D' U' R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y U2 R' F R F' R U R' y U' R' F R F' R U R' y F R U R' U' F' U R2 D' R U2 R' D R U2 R2 U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01496028900146484</v>
+        <v>0.005001068115234375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B D L2 R2 L R B L D L L B2 U L R B B R L F F B R B L R U L L L L F U2 B U B R2 B D D2</t>
+          <t>B R L L F B L2 L L B F B B D F D R B F L2 R D L F D D D F2 D U F R2 R B D R L F B2 R</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>L' U' L F2 D' F2 R U' R' F D' L U' L' F2 D' R R' F D U R U2 R' U R U' R' D' R' U R U2 R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U2 R U' R' D' R' F R F' R U R' y U' R U' R' F R' F' R y R U' R' F R' F' R y R' F R F' R U R' y U R U R' U R U2 R' U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>B2 U2 R U' R' F D' L' U' L F2 D' R' U R2 U' R' F D' L' U' L F2 D U2 R U R' D' R' U R U2 R U' R' D' R U2 R' U R U' R' D' U R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U R U2 R2 U' R2 U' R2 U2 R U2 R' U L' U2 R U' R' U2 R L U'</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0139622688293457</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U R2 D R U U F D L U U B U2 D2 F F D R D R L U R B R D R D D2 L U R F2 L2 L2 D U D R U</t>
+          <t>D2 L R L2 L2 U2 R R B D D D U2 U F2 L2 R B L2 R L L2 R R U D D B R L R F R2 R D2 D D2 D U D</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>U' F2 D' F2 D' U' R U' R' F D' R U R' F2 D L U L' U R U R' D' U R U R' D' R U2 R' U R U' R' D' R U' R' D' U2 R U' R' F R' F' R y U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U' R' F R F' R U R' y U F R U R' U' F' R2 D' R U2 R' D R U2 R U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
+          <t>B2 U2 F2 D2 U' F2 D' R' U R2 U' R' F D L U L' U2 R U' R' D' U R U R' D' U' R U R' D' R U U2 R' U R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y U' R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y F R U R' U' F' U R U2 R2 U' R2 U' R2 U2 R U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01595807075500488</v>
+        <v>0.00400233268737793</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B D F2 U U F R L B R F L2 D R R R L R F U2 R L L2 U2 R2 U2 B L2 D2 R D F F R2 F U U U F F</t>
+          <t>F B L D2 U L2 U2 U U R R D U2 D B F U F B2 B D L F R2 U R U F2 D D U2 L2 L2 F U L D L F2 F</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>U' R U' R' F D' L U' L' R U' R' F D' U2 F2 D' F2 D L U L' U R U R' D' R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R U U2 R' U R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y F R U R' U' F' U2 R' U2 R' D' R U2 R' D R2 U' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>B2 U2 R U' R' F D' U' F2 D' R' U R F2 D' R R' F D U' R U2 R' U R U' R' D' R' U R U R U R' D' R U U' R' D' U R U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y U R' F R F' R U R' y U R U' R' F R' F' R y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' R U2 R2 U' R2 U' R2 U' L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0139615535736084</v>
+        <v>0.004001379013061523</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L U L L B R B D R2 U2 B F F F2 R L R U2 L L L2 U2 R L U2 U D2 R U F B B F2 R2 D D R R D F</t>
+          <t>L D2 U U U U B F L R2 F F U L B L R F2 R F F U2 R L2 R2 U2 D L L D U2 B U L2 B2 U B R D2 B</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>L' U' L R U' R' F D' R' U R F2 D' R' U R F2 D' U' R U' R' F D L U L' U2 R U' R' D' R U R' D' U2 R U' R' D' R U R' D' U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R U' R' F R' F' R y U2 R U' R' F R' F' R y U2 F U R U' R' F' U R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U</t>
+          <t>U' F2 D' L U' L' F2 D' U' R U' R' F D' U2 F2 D R U R' U' R U R' D' R' U R U2 R U2 R' U R U' R' D' U R U' R' D' U' R U R' D' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' y F U R U' R' F' U R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01196622848510742</v>
+        <v>0.005005598068237305</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F R L L U F U R2 B2 U D R D R L R L R F B U B R2 L F F2 D R F B U D D D L U2 L2 U2 U U</t>
+          <t>D D D2 L R L L U2 D U U F U2 D U U2 B R2 U2 D2 U2 R2 L U L B U L L R2 D F U B U B D R D D</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>L U' L' F2 D' U R U' R' F D' U F2 U R U R' D' R U R' D' U R U R' D' R U2 R' U R U' R' D' U R U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y U2 R U' R' F R' F' R y U' R U' R' F R' F' R y U' F U R U' R' F' U L F R' F' L' F R F' U2 R' U L' U2 R U' R' U2 R L U2</t>
+          <t>R U R' F2 D' F2 R U' R' F D' U2 F2 D' U R U' R' F D R U' R' D' R U2 R' U R U' R' D' U' R U' R' D' U R U R' D' L F' L' F L' U' L U' R' F R F' R U R' y U2 R U' R' F R' F' R y U R' F R F' R U R' y R' F R F' R U R' y U' F U R U' R' F' U' L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01496005058288574</v>
+        <v>0.003996610641479492</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D L2 L B2 U D L R F R B2 U R L L F B B D2 B2 B D L U R D2 D R D L B2 F U F R U R L2 U2 R</t>
+          <t>U R2 L D B2 B D R B L D2 R2 D L2 B F D B2 L D L U R L2 D F2 D F2 L D B B U2 R B R2 F2 R U U</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R' U R F2 D' U F2 D' R R' F D' L' U' L R U' R' F D R U R' U' R U R' D' U2 R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U2 R U' R' D' U2 R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U R U' R' F R' F' R y U' R U' R' F R' F' R y F R U R' U' F' R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2</t>
+          <t>U' F2 D' L' U' L F2 D' L U' L' R U' R' F D' R' U R F2 D L' U' L U R U2 R' U R U' R' D' U R U2 R' U R U' R' D' U' R U' R' D' R U U2 R' U R U' R' D' U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U R U' R' F R' F' R y R' F R F' R U R' y R U R' U R U2 R' U' R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01396346092224121</v>
+        <v>0.005004644393920898</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>U2 R F D B D D R D R R2 U B2 L F D2 D2 U2 B L U F2 D U F R F D2 L F D2 L R B R F D U D F</t>
+          <t>D U2 B2 F L2 B B B R L2 L2 B L R F2 B F D F2 U D D U2 F L R2 L D2 D B L U2 R R L2 B U R U2 U2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R2 U R U' R' F D' F2 D' U' F2 D' U' R U' R' F D L U L' U2 R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U R' U' R U R' D' R U2 R' U R U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y R U' R' F R' F' R y U R' F R F' R U R' y R U' R' F R' F' R y U F R U R' U' F' U' L F R' F' L' F R F' U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>B2 U2 F2 D' U R U' R' F D' F2 D' U F2 D U2 R U R' D' U R U' R' D' U R U' R' D' U' R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y U2 R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U2 R' F R F' R U R' y U2 F U R U' R' F' U' L F R' F' L' F R F' U' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.01296591758728027</v>
+        <v>0.004993438720703125</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>F L L F B F2 U2 R R U2 B F2 R F B L U L2 D U2 D L2 U U B U F B R2 B2 L B2 F R U D B U D2 L</t>
+          <t>R D L U D B2 B2 F D B2 R R D D F B F B D D B D2 L R B B L B2 D R2 R F B L R R U2 D D F</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>U R U' R' F D' R U R' F2 D' U2 R U' R' F D' U R U' R' F D U R U' R' D' L U L' U2 R U' R' D' R U R' D' R U U' R' D' U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U' R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U2 R2 D' R U2 R' D R U2 R U' R' U L' U2 R U' R' U2 R L U'</t>
+          <t>L2 U' F2 D' R U R' F2 D' R2 U F2 U' R U2 R' U R U' R' D' R U U' R' D' U' R U2 R' U R U' R' D' U R U2 R' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U2 F U R U' R' F' U R U2 R2 U' R2 U' R2 U2 R U R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01293754577636719</v>
+        <v>0.004997968673706055</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D L2 D2 R U U D L D F R2 B D D U2 U U U D R R U B B U R F U F D B D2 D B2 R R D L R D</t>
+          <t>D2 D2 B2 B2 F B R2 D D R F U U F F L2 B F F D L U R F B2 L2 F D F2 D2 F F F D D U U R D2 D2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F2 D' U F2 D' R2 U F2 D' F2 D U2 R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U2 R U R' D' U2 R U2 R' U R U' R' D' U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U2 R' F R F' R U R' y U F U R U' R' F' U2 R U2 R2 U' R2 U' R2 U2 R U R U' R U R U R U' R' U' R2 U2</t>
+          <t>L U' L' F2 D' L U' L' F2 D' R2 U R U' R' F R U2 R' U R U' R' D' U R U2 R' U R U' R' D' U R U' R' D' U R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U R' y U R' F R F' R U R' y U' R' F R F' R U R' y F U R U' R' F' U' R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.01511549949645996</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D U R L U2 F L R U2 D2 D F L2 F U2 D R L2 R2 L F B2 D B R F F2 L D D2 R R R B R R D L D B</t>
+          <t>D F R U R B R D B2 R D D R F F D R2 B2 U D U U U B F2 U2 L2 L2 D2 F U L R U L U R2 F D B</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>U' F2 D' L' U' L F2 D' U2 R U' R' F D' F2 D R U2 R' U R U' R' D' U2 R U R' D' R' U R U R U R' D' U' R U R' D' R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U2 R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y F R U R' U' F' R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U'</t>
+          <t>R2 U R U' R' F D' R2 U F2 D' U2 F2 D' F2 D U' R U2 R' U R U' R' D' U2 R U' R' D' U2 R U' R' D' R U U' R' D' R' F R F' R U R' y U2 R U' R' F R' F' R y R U' R' F R' F' R y U R' F R F' R U R' y U' F U R U' R' F' U2 R U R' U R U2 R2 U L' U2 R U' R' U2 R L U2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01495885848999023</v>
+        <v>0.005045413970947266</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R U B2 B U L2 L2 B R R2 R2 R R L B F R L R U U L2 R2 F F B F L U2 L2 L D2 L R D R R B D2 B</t>
+          <t>D R F2 B2 U U D F2 D B2 B L L2 F L R D2 D2 R U B2 D2 L D L D2 B B B2 U2 D R2 R U2 B2 D F2 D U B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>F2 D' U2 F2 D' L' U' L R U' R' F D' L U' L' F2 D L' U' L U R U' R' D' R U2 R' U R U' R' D' U R U' R' D' U R U R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U' F U R U' R' F' R U R' U R U2 R2 U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
+          <t>R R' F D' B2 U2 R U' R' F D' R2 U F2 D' R R' F D U R U R' D' R U R' U' R U R' D' U2 R U2 R' U R U' R' D' U2 R U R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U' R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y F R U R' U' F' U2 R' U' R U' R' U2 R U' R' U L' U2 R U' R' U2 R L</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.01595735549926758</v>
+        <v>0.005000114440917969</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>U R L2 B2 F2 D R L2 F2 F U L D D U2 L2 B R L2 D B F U L U U U B D U F2 D2 U2 B2 U F R D B L</t>
+          <t>L R2 L U2 L F B L U2 R2 R B B F F F2 L F F2 B B L D U F2 B2 D R2 L U U F D U U D2 U U F F2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>L' U' L F2 D' R2 U R U' R' F D' R R' F D' U2 R U' R' F D R U' R' D' U2 R U R' D' U R U R' D' U R U2 R' U R U' R' D' U R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y U R U' R' F R' F' R y U' R' F R F' R U R' y U F U R U' R' F' R2 D' R U2 R' D R U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U'</t>
+          <t>U' R U' R' F D' F2 R U' R' F D' R U R' F2 D' U2 F2 D U2 R U' R' D' L U L' U2 R U' R' D' R' U R U2 R U' R' D' R U2 R' U R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U R' y U F R U R' U' F' L F R' F' L' F R F' U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01495885848999023</v>
+        <v>0.005011320114135742</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>U B F U2 L R L L L B F F R U B U2 B F D2 L U U L L D R R2 B F F L B2 R2 D D2 U R L2 U R</t>
+          <t>D D F U R U2 U U2 B R R B2 D2 R2 B R U D2 U R B2 L L L2 L L D U B R2 U R U D R R2 L B R L2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F2 D' R R' F D2 R' U R F2 D L' U' L R U R' D' U' R U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' R U U2 R' U R U' R' D' U' R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U R U' R' F R' F' R y R' F R F' R U R' y U F U R U' R' F' U' L F R' F' L' F R F' U' R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
+          <t>B2 U2 R U' R' F D' R' U R2 U' R' F D' U2 R U' R' F D' U R U' R' F D L U L' U2 R U2 R' U R U' R' D' U' R U R' D' U' R U' R' D' U R U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y R' F R F' R U R' y U2 R' F R F' R U R' y U' R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U2 R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0139613151550293</v>
+        <v>0.005987167358398438</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D B2 B2 L U F U2 U F L2 L2 R U2 L R U L L D L U2 D L L B2 D B2 F B U U2 U R F D U2 R2 R L L</t>
+          <t>R F2 U R L R B2 R R F2 F D R D B B2 D F U L2 F2 D U F D B B U2 F R F D D F B2 F U B D B2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>L2 U' R U' R' F D' R R' F D' F2 D' R R' F D U' R U R' D' R U R' D' R U U' R' D' R U2 R' U R U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U' R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U R' y U' F U R U' R' F' R U R' U R U2 R2 U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
+          <t>B2 U2 F2 D' R' U R F2 D' R2 U R U' R' F D' R R' F D U' R U R' D' L U L' U2 R U' R' D' R U' R' D' U2 R U2 R' U R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R U' R' F R' F' R y F U R U' R' F' U' R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01495981216430664</v>
+        <v>0.004993915557861328</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R U B U U D2 L2 B L2 U B2 L2 F B D D R L B2 L2 B U2 F D U2 F2 D2 L B F R L U R L U D U U L</t>
+          <t>F2 U U L U2 D R2 U D D U U B D U F R L U B D D2 R B U R B F L L U2 U B D2 L2 F F R U2 U</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>L' U' L F2 D' U F2 D' R R' F D' U' F2 D U R U R' D' R U R' D' R U U' R' D' U2 R U R' D' L F' L' F L' U' L U' R' F R F' R U R' y R U' R' F R' F' R y U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y F U R U' R' F' U F R U R' U' R U R' U' R U R' U' F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U'</t>
+          <t>B2 U2 F2 D' R2 U R U' R' F D' F2 D' R' U R2 U' R' F D R U R' U' R U R' D' U R U R' D' R U U2 R' U R U' R' D' R U R' D' U R U' R' F R' F' R y U2 R' F R F' R U R' y U' R' F R F' R U R' y U R U' R' F R' F' R y U2 F U R U' R' F' R U R' U R U2 R' U R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01595711708068848</v>
+        <v>0.005002975463867188</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>F2 B U2 F B2 U L F F F B2 D L F D B B2 B R U2 R U2 R B F B2 L D2 R B L B R2 F R L F U B U</t>
+          <t>L2 F2 L L F F2 D2 F2 B2 R U2 B D L L F2 F B2 B F U L2 B D2 R2 D R U F B L D U2 L R D F U U2 D</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D' L U' L' R U' R' F D' U' F2 D' U R U' R' F D L U L' U2 R U2 R' U R U' R' D' R U' R' D' U' R U' R' D' U2 R U' R' D' R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U R' F R F' R U R' y U2 F U R U' R' F' U R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2</t>
+          <t>R2 U F2 D' F2 D' R U R' F2 D' U2 F2 D U' R U R' D' R' U R U2 R U2 R' U R U' R' D' U R U2 R' U R U' R' D' U R U' R' D' U R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U2 R U' R' F R' F' R y U R U' R' F R' F' R y F R U R' U' F' R' U' R U' R' U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01497650146484375</v>
+        <v>0.003990411758422852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R L U R R B R R U F L L U U R2 B2 F D2 R L U L2 D D D2 D U2 F D R R2 F L R U F R D2 U L</t>
+          <t>U2 U R R R F2 B2 D U2 B R2 L B2 U B L2 D F U B R R2 L L U U F R R L2 R U B B R2 D L B2 F L</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>L2 U' R U' R' F D' L U' L' F2 D' R2 U R U' R' F D' U' R U' R' F D U2 R U R' D' U2 R U' R' D' U' R U R' D' R U U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y U' R' F R F' R U R' y R' F R F' R U R' y F R U R' U' F' U R U R' U R U2 R' U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U'</t>
+          <t>L U' L' R U' R' F D' U2 R U' R' F D' R' U R2 U' R' F D' L U' L' R U' R' F D L U L' U2 R U' R' D' U R U' R' D' R' U R U R U R' D' R U U' R' D' R' F R F' R U R' U R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' y U R U' R' F R' F' R y U2 F U R U' R' F' R2 D' R U2 R' D R U2 R U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.01595926284790039</v>
+        <v>0.005005598068237305</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D2 R R D2 B D D D F L R B B F2 F2 D L2 B L2 D B B B U R L B2 R R F F L2 U2 D L L D D2 L R</t>
+          <t>B U R2 R2 U D2 L D F2 R2 F R D B2 D L U U2 D R U2 L L B L2 D2 F2 U B2 L2 R2 L L R U2 F2 B U R2 D</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R U' R' F D' R U R' F2 D2 R U' R' F D U2 R U2 R' U R U' R' D' L U L' U R U R' D' R' U R U2 R U' R' D' R U R' U' R U R' D' R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U' R U' R' F R' F' R y F U R U' R' F' L F R' F' L' F R F' U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>B2 U2 R U' R' F D' L U' L' F2 D' R2 U F2 D' R' U R2 U' R' F D R' U R U R U R' D' U' R U R' D' U2 R U2 R' U R U' R' D' U2 R U R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U R U' R' F R' F' R y U' R' F R F' R U R' y U' R' F R F' R U R' y U' F U R U' R' F' U2 R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01196670532226562</v>
+        <v>0.00499725341796875</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>F2 F L L2 U2 D L B2 L L D D L2 L2 F L F U U D2 R2 L2 U U R F R2 D2 D F2 D2 B2 L B2 D R2 L2 L L B</t>
+          <t>L D F B2 U D2 B2 D L F R2 L U U R R F U U L F U B U2 R R U B2 R R F2 D L U R R F U F B</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -871,359 +871,359 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F2 D' U' F2 D2 L U' L' R U' R' F D R U R' D' U' R U R' D' R U' R' D' U2 R U2 R' U R U' R' D' U R U' R' F R' F' R y U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' R2 D' R U2 R' D R U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2</t>
+          <t>L' U' L R U' R' F D' R2 U F2 D' F2 D' L' U' L F2 D L' U' L U R U' R' D' L U L' U R U R' D' R' U R U R U R' D' U2 R U' R' D' U' R' F R F' R U R' y U' R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U R U' R' F R' F' R y F U R U' R' F' U' R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.01296639442443848</v>
+        <v>0.005003690719604492</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D L U U F L F L2 R L U R2 F2 L B U F F B U U D L L U2 R U2 U R L B R U D B F R B D R2</t>
+          <t>L L B F L2 D F D L L2 B2 D R R2 U B L D B R B2 F F F B2 U2 L2 B B2 F B2 L R2 U2 U L U U D R</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>L' U' L F2 D' B2 U2 R U' R' F D' U' F2 D' L' U' L F2 D L' U' L R U R' D' R U2 R' U R U' R' D' U2 R U R' D' U R U' R' D' U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U R U' R' F R' F' R y U' F U R U' R' F' U2 R2 D' R U2 R' D R U2 R2 U' R U R U R U' R' U' R2 U'</t>
+          <t>D' R2 U F2 D' U R U' R' F D' R' U R F2 D L U L' U2 R U' R' D' U R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y U2 R U' R' F R' F' R y U' R U' R' F R' F' R y F U R U' R' F' U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01296520233154297</v>
+        <v>0.004003524780273438</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B R L B R U F D2 D B D F R F L F F F2 D2 D L L B L2 D B D D L U R R L L L F D U D L</t>
+          <t>B2 U D U R R B D D2 F B F F F L2 D F B B U U F B U B R2 R F L D F B D U2 F F R U L2 B2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>U' F2 D' R2 U R U' R' F D' U2 R U' R' F D' L U' L' R U' R' F D L' U' L U R U2 R' U R U' R' D' U R U2 R' U R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U' R' D' R' F R F' R U R' U R' F R F' R U R' y U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U R' F R F' R U R' y U F R U R' U' F' U2 R U2 R2 U' R2 U' R2 U2 R U2 R U' R U R U R U' R' U' R2</t>
+          <t>F2 D' L' U' L F2 D' L U' L' R U' R' F D' F2 D L U L' U2 R U' R' D' U R U R' D' U2 R U2 R' U R U' R' D' R U R' U' R U R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U R' y U2 R U' R' F R' F' R y F U R U' R' F' U2 R' U' R U' R' U' L' U2 R U' R' U2 R L U2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.01196908950805664</v>
+        <v>0.005002975463867188</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R L2 U U R R U L U U D2 D2 F R D2 R R R B R L U U D L B2 F2 F U R F2 D U D F R L D2 F R</t>
+          <t>D F L2 R L U U B L R L2 U B R2 D2 B B D2 D D2 R F2 U2 U2 D2 F U D D U F D F F D L F2 U U2 D</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>U F2 D' U R U' R' F D' R' U R2 U' R' F D' F2 D U R U' R' D' L U L' U2 R U' R' D' R U U' R' D' R U2 R' U R U' R' D' R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R' F R F' R U R' y R U' R' F R' F' R y U F U R U' R' F' U R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U'</t>
+          <t>L U' L' R U' R' F D2 F2 D' R' U R2 U' R' F D U R U' R' D' U2 R U2 R' U R U' R' D' R' U R U R U R' D' U' R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R2 U R' U' R U R' U' R U R' U' F' U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.01296544075012207</v>
+        <v>0.003999471664428711</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B R2 D R R R2 R2 F D2 F R2 F U D B R B D L F2 F L L2 B D U U L B U R2 B D2 U L R F L2 B B</t>
+          <t>L D F R D R L2 R D2 R2 U U B2 D R F B F D F R2 B U L2 B2 B F L R L R U L L2 U F L L2 L L2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R' U R F2 D' U2 R U' R' F D' U2 R U' R' F D' U2 F2 D R U2 R' U R U' R' D' L U L' U R U R' D' R U R' D' U' R U2 R' U R U' R' D' U R U' R' F R' F' R y U' R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y F R U R' U' F' L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U'</t>
+          <t>U2 R U' R' F D' U F2 D' R2 U F2 D' U2 F2 D L' U' L U R U2 R' U R U' R' D' U R U R' D' R U U2 R' U R U' R' D' U R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R U' R' F R' F' R y U' R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' R U R' U' R U R' U' F' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.01794886589050293</v>
+        <v>0.005006313323974609</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B F U F L R2 F2 U2 R2 L D D B F2 U R F U L D2 L D F B D U2 L R D B U F L B L D2 B B2 F D</t>
+          <t>B B2 F F B L R2 F U2 L R U L R U F F U F2 U F R D D L U2 B F U B U R2 D2 F2 B R B2 F B2 R</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>D' R U R' F2 D' R2 U R U' R' F D' R U R' F2 D R' U R U R U R' D' R' U R U2 R U2 R' U R U' R' D' U2 R U R' D' U2 R U2 R' U R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U R U' R' F R' F' R y U2 R U R' U R U2 R' U' R' U L' U2 R U' R' U2 R L U'</t>
+          <t>R' U R2 U' R' F D' L' U' L R U' R' F D' U F2 D' R R' F D L U L' U2 R U' R' D' U R U R' D' U R U R' D' R U2 R' U R U' R' D' R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U2 R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y F U R U' U R' U' R U R' U' R U R' U' F' U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.01595664024353027</v>
+        <v>0.003993511199951172</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>U F F2 B2 L F2 D2 D R U2 B2 F L2 B2 L L2 R D U2 B B U R2 F B R U2 L2 R2 U R B2 L F2 L D2 F R D R</t>
+          <t>F2 D B B R B L U2 B F2 D R2 R2 F2 R U F2 B F L2 B D D L U R2 L2 L2 D B B U F2 U R B R B U B2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>L U' L' F2 D' R2 U R U' R' F D' R2 U R U' R' F D' R' U R F2 D U' R U R' D' U R U' R' D' U R U' R' D' U R U R' D' R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U R' y U F R U R' U' F' U2 R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
+          <t>U F2 D' L U' L' R U' R' F D' U2 R U' R' F D' F2 D R U U2 R' U R U' R' D' U' R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' U R' U2 R' D' R U2 R' D R2 U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.01595854759216309</v>
+        <v>0.004003763198852539</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>U B2 F L R2 R B B F U B2 D L B L2 L B D2 D B2 F F F2 U D R F2 R D F D2 B2 D U F B L B U F</t>
+          <t>L D L F D D2 L R D F2 R D L D D D L R B R2 B F F R2 U D U D2 D F R D2 D2 R2 F2 R R U R F</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R2 U R U' R' F D' F2 R U' R' F D' L' U' L F2 D' R' U R F2 D L' U' L R U R' D' R U R' U' R U R' D' R U2 R' U R U' R' D' U2 R U' R' D' R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U F U R U' R' F' U' R2 D' R U2 R' D R U2 R U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>L2 U' F2 D' R U R' F2 D' U2 F2 D' L U' L' R U' R' F D L U L' U2 R U' R' D' R U U' R' D' R' U R U2 R U' R' D' R U R' D' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U' R U' R' F R' F' R y R' F R F' R U R' y F U R U' R' F' U2 R2 D' R U2 R' D R U2 R U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01396298408508301</v>
+        <v>0.004995822906494141</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D F2 B D U L D2 U2 L R U U2 R D2 U2 U B F D B F U2 R F B D2 F D B R R B R L B2 U2 R F2 B2 D</t>
+          <t>D R L2 L R B D D2 B L2 L F2 F2 F B2 U2 D D2 R2 B B2 F2 B F2 U D2 F D2 F2 L F2 F R B R F2 D U F2 B</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>L' U' L R U' R' F D' U R U' R' F D' R' U R F2 D' R U' R' F D L' U' L U R U' R' D' U R U R' D' R U2 R' U R U' R' D' U' R U R' D' L U' L' B L' B' L U R U' R' F R' F' R y U R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U F R U R' U' F' U2 R' U' R U' R' U2 R U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U</t>
+          <t>D' U F2 D2 U' R U' R' F D L U L' U2 R U' R' D' U2 R U R' D' R' U R U2 R U' R' D' U' R U' R' D' U' R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U R U' R' F R' F' R y U R' F R F' R U R' y F U R U' R' F' U L F R' F' L' F R F' R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01495862007141113</v>
+        <v>0.005998134613037109</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R R U R U2 D B F R F B R L B D R R B2 F L L2 F U2 F2 F2 F2 F2 F2 L L D D U F D L D F2 F2 L</t>
+          <t>F F F R2 U2 L D2 L D D F B B U B F2 B F D B L2 F F U U U2 D U F F2 L2 U F R U F2 B2 D U D</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>U F2 D' B2 U2 F2 D' R' U R2 U' R' F D' L' U' L R U' R' F D U R U R' D' U R U2 R' U R U' R' D' R' U R U2 R U2 R' U R U' R' D' U R U2 R' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' R' U2 R' D' R U2 R' D R' U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2</t>
+          <t>R' U R2 U' R' F D' L U' L' F2 D' F2 R U' R' F D' F2 R U' R' F D L U L' U R U R' D' L U L' U2 R U' R' D' U' R U R' D' U R U R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U2 R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U2 R U' R' F R' F' R y F U R U' R' F' U2 R' U' R U' R' U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0139625072479248</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>U R F U L D F L2 B L2 R U R B D U B2 F U R B L U2 F2 R U U R2 D U B F2 R B F R B R R D</t>
+          <t>B B R L D F U R D2 D B2 B U B D D B F B D U L D B D2 D2 R2 L B D2 D F U2 B2 D U F F2 L2 B2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B2 U2 F2 D' U' R U' R' F D' U R U' R' F D' L U' L' R U' R' F D L U L' U2 R U' R' D' U R U R' D' R' U R U2 R U' R' D' U2 R U2 R' U R U' R' D' R' F R F' R U R' y R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y F U R U' R' F' U2 R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L U2</t>
+          <t>U' R U' R' F D' U R U' R' F D' L' U' L F2 D' R R' F D L' U' L R U R' D' R U U2 R' U R U' R' D' R U U' R' D' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y U' R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U R' y U2 R2 D' R U2 R' D R U' L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01495981216430664</v>
+        <v>0.004001617431640625</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B2 B D L L2 R2 D D L R F U U U R U U2 L L2 U L R L2 L L2 R B L B2 R2 U2 L F2 D F U F U U2 D</t>
+          <t>R R D L R2 L U F R2 R D L R F F L F2 B U U U F2 U D2 R F2 L2 D2 R U2 B D2 D R L U B L R F2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R2 U F2 D' U2 R U' R' F D' R2 U F2 D' L' U' L R U' R' F D U2 R U R' D' R U' R' D' R U R' U' R U R' D' U2 R U2 R' U R U' R' D' U2 R' F R F' R U R' y U2 R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U R U' R' F R' F' R y U' F U R U' R' F' U2 R2 D' R U2 R' D R U2 R U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>L U' L' R U' R' F D' R R' F D' L' U' L F2 D' L U' L' R U' R' F D R U R' D' U2 R U' R' D' U' R U R' D' U2 R U' R' D' U2 R U' R' F R' F' R y U' R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U' R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.01396465301513672</v>
+        <v>0.003993034362792969</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B2 L2 L F U F R D B2 R U2 B D L L D F U D F2 D2 B F2 L U B F R R R F D F D R2 B L F D L</t>
+          <t>B F2 R2 L2 U U R U B R2 L R2 B L D F2 B U D2 L F2 L F2 D D2 F R2 F B2 B B2 F L R U F F R F B</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>L U' L' F2 D' R U R' F2 D' L' U' L R U' R' F D' R R' F D R U' R' D' R U' R' D' U2 R U' R' D' U' R U2 R' U R U' R' D' U R' F R F' R U R' y U' R U' R' F R' F' R y R U' R' F R' F' R y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U' R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U</t>
+          <t>R2 U R U' R' F D' L U' L' F2 D' U2 R U' R' F D' U2 F2 D R U2 R' U R U' R' D' R U U' R' D' U' R U2 R' U R U' R' D' U R U' R' D' R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y U R U' R' F R' F' R y U2 F U R U' R' F' U R' U2 R' D' R U2 R' D R2 U' R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.01495981216430664</v>
+        <v>0.006001472473144531</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F L R2 F F R F D U2 B B D2 L F2 D2 F D B2 D B2 R F F L D2 D U B D R L F L2 B R R2 R U F R2</t>
+          <t>D F U L U R F U2 U R U2 D R2 B2 U U L2 R2 B R R2 D L R2 U B2 F D L L F B2 D F2 R B2 U2 D L U</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>U R U' R' F D' R U' R' F D' R' U R2 U' R' F D' U F2 D L U L' U2 R U2 R' U R U' R' D' R U U' R' D' R U U' R' D' U2 R U R' D' U' R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y F R U R' U' F' R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>D' R R' F D' U R U2 R' U R U' R' D' U' R U R' D' U R U R' D' U' R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U2 R U' R' F R' F' R y U R U R' U R U2 R2 U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.01695346832275391</v>
+        <v>0.003003835678100586</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R2 D D B2 D F U L2 L U U2 B U U L2 F D D2 D B2 D2 B2 L D U U L U B L2 U R U2 F B2 L R L U B</t>
+          <t>R D2 D F2 R F2 U2 U2 F F2 F2 B D2 B2 D2 R L2 U R L2 D L2 U L R L D2 R F R D L R F F L D R L L</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>U' F2 D' R U R' F2 D' R' U R2 U' R' F D' U2 R U' R' F D U2 R U' R' D' U2 R U' R' D' R U U2 R' U R U' R' D' U R U' R' D' R' F R F' R U U' R' F R' F' R y U2 R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U R U' R' F R' F' R y F U R U' R' F' U2 R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U'</t>
+          <t>L2 U' R U' R' F D' F2 D' R' U R F2 D' U R U' R' F D U2 R U R' D' U' R U R' D' R U R' D' U R U2 R' U R U' R' D' U' R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R U' R' F R' F' R y U' R' F R F' R U R' y F U R U' R' F' U R2 D' R U2 R' D R U2 R U2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.01397275924682617</v>
+        <v>0.005002498626708984</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R L B U B2 B U L D B L U U U U2 L B B U U L D2 R2 R D B2 D R L2 D R F2 D L2 U B B D R B2</t>
+          <t>R L F U2 U U U F2 D L L U R L2 R R R2 R U F2 R U L D F U B2 R2 R F L2 B R D L B D L B U</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R' U R F2 D' B2 U2 F2 D' U F2 D' R' U R F2 D R U R' U' R U R' D' U2 R U2 R' U R U' R' D' U' R U' R' D' U2 R U R' D' U' R' F R F' R U R' y U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y U F R U R' U' F' U2 R U R' U R U2 R' U' R' U L' U2 R U' R' U2 R L U2</t>
+          <t>D' U R U' R' F D' R U' R' F D' L U' L' R U' R' F D U' R U R' D' U2 R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R U R' U' R U R' D' R' F R F' R U U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U2 R' F R F' R U R' y U F R U R' U' F' U R U2 R2 U' R2 U' R2 U2 R U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0169527530670166</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F R U B F F D2 D R B F U2 R F B U L F D2 R U U D D2 D D L R B2 U U R B R D D R F R B</t>
+          <t>F2 U B B2 R2 D L D D2 D B U U2 L R R R2 D L U R F B U B2 F R B R R U2 L D U2 D R U B D R</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D' R' U R F2 D' F2 R U' R' F D' R U' R' F D U R U2 R' U R U' R' D' U R U' R' D' U2 R U R' D' U R U2 R' U R U' R' D' U R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y F R U R' U' F' U2 R2 D' R U2 R' D R U' L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
+          <t>F2 D' U F2 D' U2 F2 D' R' U R F2 D L' U' L U R U2 R' U R U' R' D' L U L' U R U R' D' R U R' D' U2 R U2 R' U R U' R' D' U2 R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y U2 R' F R F' R U R' y U R' F R F' R U R' y F U R U' R' F' U' R2 D' R U2 R' D R U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.02393460273742676</v>
+        <v>0.004999399185180664</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>U B F F2 R2 F D U R B R2 B D R2 U U R D B R D2 D U2 B2 R D B L F U2 R2 R F B R D L2 R L R</t>
+          <t>L U2 L2 B D L D2 F U U F R L U L L R U F2 D U U R L D F U U D D L D F U2 U R2 D R R2 L</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>L' U' L F2 D2 R2 U R U' R' F D' R U' R' F D L' U' L U R U' R' D' R U R' D' R U' R' D' U2 R U2 R' U R U' R' D' R' F R F' R U R' y U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U2 F U R U' R' F' U R2 D' R U2 R' D R U2 R U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U'</t>
+          <t>L2 U' R U' R' F D' L' U' L F2 D' F2 R U' R' F L U L' U2 R U' R' D' R U U' R' D' R U R' D' U2 R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U R U' R' F R' F' R y U2 R U' R' F R' F' R y U F R U R' U' F' U2 R U R' U R U2 R2 U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.02293872833251953</v>
+        <v>0.003998756408691406</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>F F B2 L R2 F U B L2 D U R U B B F D F2 B R U D R2 B R L U D B L R2 D D B F U F2 U2 U B</t>
+          <t>B B2 B U D2 B2 L U D B R L D2 B R B R2 D L2 U L2 L B2 L U2 F B B D R R F2 R F2 F L2 U B D U</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>U' F2 D' F2 R U' R' F D' R R' F D' F2 D U2 R U' R' D' L U L' U2 R U' R' D' R' U R U2 R U2 R' U R U' R' D' U2 R U R' D' L F' L' F L' U' L U' R' F R F' R U R' y U R U' R' F R' F' R y U' R U' R' F R' F' R y R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' L F R' F' L' F R F' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
+          <t>B2 U2 R U' R' F D' U F2 D' U F2 D' L U' L' F2 D U' R U2 R' U R U' R' D' U2 R U' R' D' R U2 R' U R U' R' D' U R U' R' D' R' F R F' R U R' y U R U' R' F R' F' R y U R U' R' F R' F' R y U2 R' F R F' R U R' y U F U R U' R' F' R U2 R2 U' R2 U' R2 U' L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01495862007141113</v>
+        <v>0.004996061325073242</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>U F B L R2 F R D F R2 D2 B2 U2 B R2 F B B U F U L L2 L2 L F2 U R2 L F F U F R F U L U R2 F</t>
+          <t>U B F B2 B L2 L U D U2 U D U F2 D U D2 F D D B2 D U F B R D R F U B D2 U U L D F R D F2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R U' R' F D' R2 U R U' R' F D' R R' F D' L' U' L R U' R' F D R' U R U R U R' D' R U R' U' R U R' D' U2 R U2 R' U R U' R' D' U R U R' D' U2 R U' R' F R' F' R y U' R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R U' R' F R' F' R y F U R U' R' F' U R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U2</t>
+          <t>L' U' L F2 D' L U' L' R U' R' F D' L U' L' F2 D' L U' L' F2 D R' U R U2 R U2 R' U R U' R' D' R' U R U2 R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U' R' D' R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' U' R U' R' U' L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.01695442199707031</v>
+        <v>0.005003213882446289</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F R2 B D L F U U R R F2 D D R F F R U2 D F2 R R F D2 F R D2 L F D U U D L D2 R L2 B2 U U</t>
+          <t>R2 R2 L B2 R2 R F2 B R F D2 D U D2 F L D R L F L R F D D F F F F B B L U F R F B U L2 F</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1231,35 +1231,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B2 U2 F2 D' L' U' L R U' R' F D' R2 U R U' R' F D' U F2 D U' R U' R' D' L U L' U2 R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U R U R' D' R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U R U' R' F R' F' R y U' R U' R' F R' F' R y R U2 R2 U' R2 U' R2 U2 R U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
+          <t>L U' L' R U' R' F D' U' F2 D' L' U' L R U' R' F D' L' U' L R U' R' F D R U U2 R' U R U' R' D' R' U R U R U R' D' R U U2 R' U R U' R' D' R U U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U2 R U' R' F R' F' R y U2 R U' R' F R' F' R y U F R U R' U' F' U' R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0139625072479248</v>
+        <v>0.00715184211730957</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>L U R2 B D R L D U L F F2 B F D2 B2 B R F L L2 D R D2 U R R2 B2 R B2 L B B2 F R U U U R U2</t>
+          <t>R2 B R F D2 R L R U2 F2 L R B B B L U2 L2 F R D2 B B B B R F2 B U2 D R L U L2 B L B2 R2 L R2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B2 U2 F2 D' U R U' R' F D2 U2 R U' R' F D R' U R U R U R' D' U2 R U' R' D' R U U2 R' U R U' R' D' U R U2 R' U R U' R' D' U R' F R F' R U R' y U R' F R F' R U R' y U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' F' R' U' R U' R' U2 R U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2</t>
+          <t>L U' L' F2 D' R2 U R U' R' F D' U2 F2 D' U2 F2 D U' R U2 R' U R U' R' D' L U L' U R U R' D' R' U R U2 R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01296496391296387</v>
+        <v>0.004993200302124023</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D2 F L F2 F2 R R L B2 B B U D U L D2 B U2 R R B F U2 U B2 L R B2 U R U D L2 F B L L L D B</t>
+          <t>L U D L2 R B R U F F U F2 R L2 B2 D R2 D2 R D F L L L L2 D B L B F U2 D2 B U2 B2 R L R D2 R</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1267,269 +1267,269 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R U R' F2 D' U' F2 D' U2 F2 D' U' R U' R' F D U R U2 R' U R U' R' D' R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R U R' U' R U R' D' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U' R' F R F' R U R' y F U R U' R' F' U' R' U' R U' R' U' L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U2</t>
+          <t>U F2 D' B2 U2 F2 D' R2 U R U' R' F D' L' U' L R U' R' F D U' R U2 R' U R U' R' D' U R U R' D' R U U' R' D' U2 R U' R' D' U' R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y F U R U' R' F' R' U' R U' R' U' L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.0159766674041748</v>
+        <v>0.004003763198852539</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R2 F B U B L D2 D D U R2 D D D R D B L2 U R F D2 L D R B F L B U2 R L D D U F L F D B2</t>
+          <t>R F U2 F L2 D R2 U U F U2 B2 F F R2 U F R F D2 L L2 U U2 D B2 L F2 D R U U L L B D D U D D2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' B2 U2 F2 D' R' U R F2 D' L' U' L F2 D R U U' R' D' R U U' R' D' R' U R U R U R' D' U' R U R' D' U' R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U' R' F R F' R U R' y U F R U R' U' F' U' R U2 R2 U' R2 U' R2 U2 R U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U</t>
+          <t>U' F2 D' F2 D' U2 R U' R' F D' U2 F2 D L U L' U R U R' D' R U R' U' R U R' D' U' R U2 R' U R U' R' D' R U R' U' R U R' D' U2 R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y U2 R U' R' F R' F' R y U' R' F R F' R U R' y U2 R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.01496124267578125</v>
+        <v>0.003995895385742188</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>L R2 D2 R B R U R F L U R D2 F L L L F U F D D F U B U L D D D F L D B L2 F F D B U2</t>
+          <t>B L2 F2 U U2 R U B U R L L2 B R F U L2 R B R U R U D L F L U F F2 L2 D2 U L L L2 F U F L2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' U2 R U' R' F D' R U R' F2 D' F2 D L U L' U2 R U' R' D' R U U' R' D' R U U' R' D' U' R U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U R' y U F U R U' R' F' U' R U2 R2 U' R2 U' R2 U2 R U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>F2 R U' R' F D' B2 U2 F2 D' L U' L' R U' R' F D' U' F2 D U2 R U2 R' U R U' R' D' U2 R U' R' D' R' U R U R U R' D' R U U' R' D' R U' R' F R' F' R y R U' R' F R' F' R y U R U' R' F R' F' R y U' R U' R' F R' F' R y U2 R' U' R U' R' U2 R U' R' U L' U2 R U' R' U2 R L U'</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01595711708068848</v>
+        <v>0.005005359649658203</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>L2 U F L2 L2 L R D L B R D2 L2 R2 B U2 L D U R R L2 R2 R B L2 L D B B B U B R2 D D B2 U F2 D2</t>
+          <t>L2 F B L B D U B R U D L2 B R2 D R2 D R2 D U R F F R D R U F2 F B F D D D B2 F L R D R2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>L U' L' R U' R' F D' R2 U R U' R' F D2 R R' F D L U L' U R U R' D' R' U R U2 R U2 R' U R U' R' D' U' R U R' D' R U R' D' R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y U2 R U' R' F R' F' R y U2 R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U' R U R' U R U2 R' U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>U' F2 D' U F2 D' L U' L' R U' R' F D' R U R' F2 D U R U2 R' U R U' R' D' R' U R U R U R' D' R U2 R' U R U' R' D' R U U' R' D' R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 F U R U' R' F' U' R U2 R2 U' R2 U' R2 U2 R U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.01496100425720215</v>
+        <v>0.004994630813598633</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B2 U U D R U2 D B R B L2 L U B2 F F B D R F2 B2 B F F B2 B D F2 F F R L2 L L R R2 R2 D L L</t>
+          <t>L F2 F F U2 L R D2 D U R U U2 B D D R L2 U R F F U F U U U R2 D B B L F R U R2 B2 U2 D D</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R R' F D' L U' L' F2 D' R' U R F2 D' F2 D U R U2 R' U R U' R' D' U' R U' R' D' U2 R U2 R' U R U' R' D' U' R U R' D' U R' F R F' R U R' y U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y F R U R' U' F' U' R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U2</t>
+          <t>R2 U R U' R' F D' F2 D' R U R' F2 D' L U' L' F2 D R U R' D' L U L' U2 R U' R' D' R' U R U R U R' D' U R U R' D' U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' R U R' U R U2 R' U' R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.01405549049377441</v>
+        <v>0.005001544952392578</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B2 L2 R B2 R2 B B D D R L F L2 B R U U R2 D B2 B R2 R F2 D L2 D U2 U R2 D2 L F U2 L F D F L U</t>
+          <t>L F L2 B F B B B F F D F F2 B L F R U R B B2 D F D B F B B2 L B B D B2 D2 L D R R2 F F</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>U R U' R' F D' L' U' L R U' R' F D' U2 F2 D' U' R U' R' F D U R U' R' D' U' R U2 R' U R U' R' D' U R U R' D' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y U' F U R U' R' F' U' R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2</t>
+          <t>B2 U2 R U' R' F D' F2 D' U2 R U' R' F D' L' U' L R U' R' F D L' U' L R U R' D' R' U R U R U R' D' R' U R U2 R U' R' D' R U R' D' R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R' F R F' R U R' y U F U R U' R' F' U' R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.01198577880859375</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>U D2 D D B U2 F D U D F2 U D B U F U2 F U B L F F L L2 R R U2 L B F R B2 D D2 U R F D R</t>
+          <t>D2 F D L D B L U L B D F U2 D2 L R2 R R D F B U L2 B R U B2 L U2 L F R2 L B U2 D U2 D R2 B2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>U2 R U' R' F D' R R' F D' R2 U R U' R' F D' U F2 D R U' R' D' U' R U' R' D' R' U R U2 R U' R' D' U' R U' R' D' U' R' F R F' R U R' y U' R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U R U' R' F R' F' R y F R U R' U' F' U' R U2 R2 U' R2 U' R2 U2 R U2 R U' R U R U R U' R' U' R2 U'</t>
+          <t>R2 U R U' R' F D' L' U' L F2 D' R2 U R U' R' F D' U R U' R' F D L' U' L U R U' R' D' L U L' U2 R U' R' D' R' U R U2 R U2 R' U R U' R' D' U' R U' R' D' U2 R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U R' y U' R' U' R U' R' U2 R U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01495552062988281</v>
+        <v>0.004999876022338867</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>L R R B B F2 U R B B F L R F2 B D L F D R B2 R L L B2 R R B B R F U2 D2 F2 L B2 U D D2 B</t>
+          <t>F F R D2 L R L R2 D B F B L F2 R2 R B U L F U2 L2 U B2 R L R2 L D F U D D R2 L B2 L L B D2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R' U R2 U' R' F D' U2 R U' R' F D' R R' F D' F2 D R U' R' D' R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R U' R' D' U R U' R' F R' F' R y U' R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R' F R F' R U R' y U F R U R' U' F' U2 L F R' F' L' F R F' U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
+          <t>R' U R F2 D' U2 R U' R' F D' R U R' F2 D' L' U' L F2 D R' U R U2 R U' R' D' R' U R U R U R' D' R U R' D' R U R' D' R U' R' F R' F' R y R' F R F' R U R' y U R U' R' F R' F' R y U2 R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U2 R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.01497435569763184</v>
+        <v>0.003999233245849609</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>U R F B B U L2 R R2 R F R R D2 F L2 L F R L R2 U2 D U L U L B2 F R B F R F F2 F U L2 R R</t>
+          <t>D D2 F D2 R F R D R U2 R L D2 F R D U F B2 L2 B D D2 L L2 U2 R B F2 F D F D L D F F L L L</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R U R' F2 D' U' F2 D' U2 F2 D' R R' F D U2 R U R' D' R' U R U2 R U2 R' U R U' R' D' U R U' R' D' R U U2 R' U R U' R' D' U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' F' U L F R' F' L' F R F' U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>R2 U R U' R' F D' F2 D' U F2 D' R' U R F2 D U R U R' D' U' R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U' R U' R' D' R' F R F' R U R' U R' F R F' R U R' y U2 R U' R' F R' F' R y U' R U' R' F R' F' R y R' F R F' R U R' y U2 F U R U' R' F' U' R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.01493167877197266</v>
+        <v>0.003999948501586914</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>F R R R L L2 B F F D L B B L2 U R U2 F U B F B D U L R R2 R L U F D L F R F U L B U2</t>
+          <t>B R D L2 R L B2 F U L2 U F2 F L U R B U2 F F F B2 D U U R D U R R D D B2 L2 B2 U R B2 L D</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R U' R' F D' R R' F D' L' U' L F2 L' U' L U R U2 R' U R U' R' D' R U' R' D' R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R' F R F' R U R' y R' F R F' R U R' y U R' F R F' R U R' y R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' R' U' R U' R' U2 R U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>F2 D2 U F2 D' U' R U' R' F D L U L' U2 R U' R' D' U2 R U2 R' U R U' R' D' U2 R U' R' D' U R U2 R' U R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U2 R U' R' F R' F' R y U F U R U' R' F' R U R' U R U2 R2 U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.01296663284301758</v>
+        <v>0.002953052520751953</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R B L B2 L L D L2 B F U U L2 F L B U D L U F F D L U2 L U F D U2 L F2 D2 B F D L R B2 F</t>
+          <t>R L D U R D L2 D L L U R B B2 L2 B B B F L U B2 R D2 R F F2 U U2 B B D B L B2 B U L R R</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>B2 U2 F2 D' U2 R U' R' F D' L' U' L F2 D' U' F2 D R' U R U R U R' D' R U R' U' R U R' D' R U U' R' D' R U R' D' R' U R B' R B R' U R U' R' F R' F' R y U R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U' R U' R' F R' F' R y F R U R' U' F' L F R' F' L' F R F' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
+          <t>U2 F2 D' L' U' L F2 D' L U' L' R U' R' F D' L U' L' R U' R' F D U2 R U' R' D' U R U R' D' R' U R U2 R U' R' D' U2 R U2 R' U R U' R' D' U R U' R' F R' F' R y U R' F R F' R U R' y U2 R' F R F' R U R' y U R U' R' F R' F' R y F R U R' U' F' U2 R U R' U R U2 R' U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.01695609092712402</v>
+        <v>0.003999471664428711</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B L2 R2 D F2 B R D D D B2 B2 D R2 F B B D B D B B2 D R L2 F U2 F2 R U2 L L R F R U B D F R2</t>
+          <t>D B D D B2 R D2 B R F F U F R F2 R R L D F D L F2 D R D B R D U L F F2 D2 B U R B U2 R</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>L2 U' F2 D' R R' F D' L U' L' R U' R' F D' R' U R2 U' R' F D L' U' L U R U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' R U R' U' R U R' D' U' R U2 R' U R U' R' D' U R U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y U2 R' F R F' R U R' y U' R' F R F' R U R' y U F U R U' R' F' U R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U'</t>
+          <t>R2 U F2 D' U' R U' R' F D' R2 U R U' R' F D' U2 F2 D R U R' D' R U R' U' R U R' D' R' U R U2 R U' R' D' U R U R' D' U2 R U' R' F R' F' R y R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.01595735549926758</v>
+        <v>0.003992080688476562</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>U2 F2 B L F D B U2 B U F2 B F U F B L U F B2 U B L R L U R D2 U B L U L D L2 U2 L L U F</t>
+          <t>F B2 F U2 F L L F F F U R U R B2 R2 B B R U L D2 F2 U B U2 R2 U B2 D F U2 U F R R R B L F</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' U2 R U' R' F D' F2 R U' R' F D' R' U R2 U' R' F D R' U R U2 R U' R' D' R U' R' D' U' R U' R' D' U' R U2 R' U R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U R' F R F' R U R' y U2 F U R U' R' F' U' R' U' R U' R' U2 R U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
+          <t>U' R U' R' F D' U2 R U' R' F D' L' U' L R U' R' F D' U F2 D L U L' U2 R U2 R' U R U' R' D' R U R' U' R U R' D' R U U2 R' U R U' R' D' R U2 R' U R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U F R U R' U' F' R' U2 R' D' R U2 R' D R2 U'</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.01496028900146484</v>
+        <v>0.004005908966064453</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D R R R L R2 D D L R U F2 R2 U U2 R2 U U2 D2 D2 F R R R2 L R B U2 U D U2 R F F2 L2 D R R U F2</t>
+          <t>L B D B R D2 U L R R L F L R B R D B B D R D U L R2 L2 L B B2 R U D F F D2 R B U2 U B2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>L U' L' F2 D' R2 U R U' R' F D' U2 F2 D' R R' F D U R U' R' D' R' U R U R U R' D' U2 R U' R' D' U2 R U2 R' U R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y U R U' R' F R' F' R y U R' F R F' R U R' y U R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
+          <t>L U' L' R U' R' F D' B2 U2 F2 D' U' F2 D' R U' R' F D R U2 R' U R U' R' D' U R U R' D' U R U' R' D' R U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y U' R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.01296687126159668</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>D2 F R U D2 R U B2 D D D R2 D R R2 R B F L R R2 R U L2 U U2 U2 L U F2 D L U2 F D D F B2 B D</t>
+          <t>R D U2 L U F R U D2 B R2 R L D B U D L F2 D B2 U L R F D F U D L2 D F F2 F B R F L2 D2 L2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>U F2 D' R2 U R U' R' F D' U R U' R' F D' R R' F D U2 R U2 R' U R U' R' D' R U R' U' R U R' D' R U U' R' D' U R U2 R' U R U' R' D' R U' R' F R' F' R y U R' F R F' R U R' y U R' F R F' R U R' y U' R U' R' F R' F' R y F R U R' U' F' R2 D' R U2 R' D R U2 R U' R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>U R U' R' F D' U F2 D' L U' L' F2 D' F2 R U' R' F D R' U R U2 R U2 R' U R U' R' D' R U R' U' R U R' D' R U2 R' U R U' R' D' U' R U' R' D' U' R' F R F' R U R' y U' R' F R F' R U R' y U' R U' R' F R' F' R y U2 R U' R' F R' F' R y U' F U R U' R' F' R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01296520233154297</v>
+        <v>0.003998517990112305</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R R L D2 L R B R R2 L F2 R D L2 D B D2 D U D F D L U F2 U U F2 D F2 L L2 L2 L2 D2 U2 B L B D</t>
+          <t>F L B D B2 B2 B L F L U R2 R L B R L2 B2 D2 D F2 B U2 L F U L U2 L B B L2 L D B L F F F R</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1537,143 +1537,143 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R U R' F2 D' U R U' R' F D' R U' R' F D' F2 R U' R' F D R U U2 R' U R U' R' D' U R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U R U2 R' U R U' R' D' U2 R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R U2 R2 U' R2 U' R2 U' L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U'</t>
+          <t>L2 U' R U' R' F D' U2 R U' R' F D' L U' L' R U' R' F D' F2 R U' R' F D U R U' R' D' R' U R U R U R' D' R U R' U' R U R' D' R U R' U' R U R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U' R' F R F' R U R' y R U' R' F R' F' R y U2 R' F R F' R U R' y U F R U R' U' F' R' U2 R' D' R U2 R' D R2 U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0139625072479248</v>
+        <v>0.003072261810302734</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>U2 L F U F2 L2 L2 R2 F B U2 L R R2 B R L R2 U B2 F F D2 U U B L2 F2 U L U U L F L2 L2 F2 B2 F L</t>
+          <t>U B R F U2 D D2 U R F F U R U U L L U2 D F U2 B R R L B2 D2 B L D B U B B U F B L L F</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>U R U' R' F D' U' R U' R' F D2 L' U' L R U' R' F D R' U R U2 R U2 R' U R U' R' D' U R U R' D' U' R U' R' D' U' R U2 R' U R U' R' D' R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' R U' R' F R' F' R y U2 R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' U' L F R' F' L' F R F' U' R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U</t>
+          <t>U F2 D' U R U' R' F D2 L U' L' F2 D U R U2 R' U R U' R' D' R U2 R' U R U' R' D' R U R' D' U R U2 R' U R U' R' D' U R' F R F' R U R' y U R U' R' F R' F' R y U2 R U' R' F R' F' R y U2 R U' R' F R' F' R y U F R U R' U' F' L F R' F' L' F R F' U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.01396393775939941</v>
+        <v>0.003460884094238281</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>F2 U B F D B L D U U R U2 L U D L U2 U R F U R B L2 D R L B2 L2 D L F R B L2 B B F F R2</t>
+          <t>R2 F U D B2 L U F2 L L2 B B2 L2 L R L B F2 R2 F F B F U R L D2 D D L L2 R B F2 U2 D B2 R R U</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>U2 F2 D' F2 R U' R' F D' U2 F2 D' L U' L' R U' R' F D U R U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' U' R U R' D' R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y U R' F R F' R U R' y U' R' F R F' R U R' y U2 R' F R F' R U R' y U F R U R' U' F' U' R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>D' U' F2 D' U2 F2 D' L U' L' F2 D L' U' L R U R' D' U2 R U' R' D' U' R U2 R' U R U' R' D' R U U2 R' U R U' R' D' U R U' R' F R' F' R y U' R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y F R U R' U' F' U R' U' R U' R' U' L' U2 R U' R' U2 R L U</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01692795753479004</v>
+        <v>0.005197763442993164</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D B2 B U U2 L2 B F B L2 R F B R U2 F U2 L L L R2 R L F L D R F F L2 R B F B D F U U B B</t>
+          <t>F2 R R B B F R2 L B2 D U L F D R F U F2 F B B F R U U L D L B U2 F B R U U L F D F2 B</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R U R' F2 D' U F2 D' F2 R U' R' F D' L U' L' F2 D R' U R U2 R U2 R' U R U' R' D' U2 R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F U R U' R' F' U2 R2 D' R U2 R' D R U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>L' U' L R U' R' F D' U2 F2 D' R' U R F2 D' R' U R F2 D U' R U2 R' U R U' R' D' L U L' U R U R' D' R' U R U R U R' D' R U U2 R' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.01695346832275391</v>
+        <v>0.004996061325073242</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>F U U F F2 B U L B2 F2 D D2 F2 F B B B R2 U B B L F B2 B U R U2 D D B L2 B L R D2 L D2 U F</t>
+          <t>B B D B2 U B F D U U2 D L2 F2 R L D L U2 L2 F B2 B R F F B D U2 R L2 R B2 F F B F D2 L B R</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>L2 U' R U' R' F D2 L' U' L R U' R' F D' F2 R U' R' F D R' U R U2 R U' R' D' U2 R U2 R' U R U' R' D' U' R U' R' D' U2 R U2 R' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U2 R' U' R U' R' U' L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U'</t>
+          <t>L' U' L R U' R' F D' F2 R U' R' F D' F2 R U' R' F D' R U R' F2 D R' U R U2 R U2 R' U R U' R' D' U R U' R' D' U' R U2 R' U R U' R' D' U2 R U' R' D' R' F R F' R U R' y U' R U' R' F R' F' R y U R' F R F' R U R' y R U' R' F R' F' R y U2 F U R U' R' F' R' U2 R' D' R U2 R' D R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.01598215103149414</v>
+        <v>0.005006551742553711</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>D B B B R2 R U L D2 B R R U L2 U B D B L R D2 L F B2 L U L B2 D L B L2 D2 R2 D2 B L F U2 D</t>
+          <t>B2 L B R F F D D2 B U D2 R U L B2 U B L2 R R D2 L B U L U U2 R B2 D2 R R2 D R B F L L2 F L</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>D' R U R' F2 D' U' R U' R' F D' R' U R2 U' R' F D U' R U' R' D' L U L' U R U R' D' R U U2 R' U R U' R' D' U' R U' R' D' U R U' R' F R' F' R y U2 R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U2 R2 D' R U2 R' D R U2 R U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U</t>
+          <t>L' U' L F2 D' R U' R' F D' U' R U' R' F D' F2 D L' U' L U R U' R' D' U2 R U R' D' R U' R' D' R U2 R' U R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' F' U2 R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01697993278503418</v>
+        <v>0.003997564315795898</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B U2 D L2 F L R2 U2 B2 R B U D B L U2 B R2 D R2 U D D U R B2 D2 U B D B2 F2 B L R F U F B2 F</t>
+          <t>R U F L L L R U U2 R D2 F2 D B B L F2 F U2 L U B R2 F R2 B R2 R F F2 B F2 U R2 U F L F R D</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R2 U F2 D' F2 R U' R' F D' U R U' R' F D' R U R' F2 D R U U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' R U U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U2 R U' R' F R' F' R y U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U2 R' F R F' R U R' y U' F U R U' R' F' U F R U R' U' R U R' U' R U R' U' F' U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>L U' L' R U' R' F D' L' U' L F2 D' R U R' F2 D' U R U' R' F D U' R U' R' D' R' U R U R U R' D' R U U' R' D' R U U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U' R U' R' F R' F' R y R U' R' F R' F' R y U F U R U' R' F' R' U' R U' R' U' L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.01397109031677246</v>
+        <v>0.003989458084106445</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>U2 D D2 R2 B L2 D D F F R D2 R D R R F D B L2 D D F2 D B L R U L B2 U U2 D2 F U F R R F B</t>
+          <t>L D D U R D L B U L D R2 B F R F F2 U D2 D F F2 F2 L D B F B L B F R B F R U L2 L L L2</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>U F2 D' L U' L' F2 D' R2 U R U' R' F D' L' U' L F2 D R' U R U2 R U' R' D' R U R' D' R U R' U' R U R' D' U' R U R' D' R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y U2 R U' R' F R' F' R y F R U R' U' F' U' R U2 R2 U' R2 U' R2 U2 R U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>U' R U' R' F D' U R U' R' F D' L' U' L F2 D' R R' F D U2 R U' R' D' R U' R' D' U R U R' D' U' R U2 R' U R U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U' R' F R F' R U R' y U R U' R' F R' F' R y U' R U' R' F R' F' R y U' F U R U' R' F' L F R' F' L' F R F' U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.01695442199707031</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>D D D2 D2 U B F R2 B2 F B D L B U F B R2 F R U B L L D B D F2 R B D D2 B L2 R U R F F L</t>
+          <t>D D U2 F2 F2 B2 F L D D R U R U2 L L L L2 L2 L2 B U D R2 F U L2 U F2 D R U2 F2 L2 U F B L R2 R</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1681,565 +1681,565 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R2 U R U' R' F D' R R' F D' L' U' L F2 D' U F2 D R U U' R' D' R' U R U2 R U2 R' U R U' R' D' R U U2 R' U R U' R' D' U' R U2 R' U R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U R' y R U' R' F R' F' R y U' F U R U' R' F' U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
+          <t>L' U' L F2 D' B2 U2 F2 D' R2 U F2 D' R U' R' F D R U R' D' U R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U' R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U' R' F R F' R U R' y F U R U' R' F' U2 R U R' U R U2 R2 U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.01495885848999023</v>
+        <v>0.00500798225402832</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>U D F B2 F2 B B2 F2 D L D L R R L D B R F2 F D U U F L R D D2 D U F F U2 B2 R R F B2 F2 R</t>
+          <t>U U L2 D L2 U D D2 B U U U L L2 L2 U2 R2 U R U2 D L2 R B R D B L R2 L R D F2 L B D B2 L2 D U2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R' U R F2 D' U2 F2 D' F2 D' L U' L' R U' R' F D U' R U' R' D' L U L' U R U R' D' U2 R U' R' D' U R U R' D' L F' L' F L' U' L U' R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U R U' R' F R' F' R y F U R U' R' F' U R U2 R2 U' R2 U' R2 U' L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
+          <t>R' U R2 U' R' F D' R U R' F2 D' F2 D' U R U' R' F D R U' R' D' R U U' R' D' R U R' U' R U R' D' U2 R U' R' D' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U F R U R' U' F' U R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.01296329498291016</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R2 F F D F2 U U F F D2 L2 R F U L D2 B B2 B L R F B B D2 B2 R2 U F R2 R2 U D R D2 B B2 R2 B D</t>
+          <t>B2 B F D B R2 L D2 F B L B U2 L2 B2 U F U F R R R B U2 F U2 B F F F2 U R D R R U2 D2 D2 D2 F</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>U R U' R' F D' U F2 D' R U' R' F D' R' U R F2 D R U2 R' U R U' R' D' U' R U R' D' R U U' R' D' U R U2 R' U R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R U' R' F R' F' R y U R' F R F' R U R' y U R U' R' F R' F' R y U2 F U R U' R' F' U2 R2 D' R U2 R' D R U' L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U2</t>
+          <t>U' F2 D2 R2 U R U' R' F D' U F2 D U2 R U' R' D' U' R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' R U' R' D' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R U' R' F R' F' R y U2 R U' R' F R' F' R y U2 R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0169525146484375</v>
+        <v>0.004004001617431641</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R R U B2 B2 B2 F D D F2 F D L2 U2 D R R F D R D R B B U D F D2 R2 L B2 R U U R U2 U B2 B R2</t>
+          <t>F2 R B D D R U2 B U L U F D2 D B2 U R B2 U F2 D R F L U B U L D R R R R B B2 U B2 R U B</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>B2 U2 F2 D' F2 R U' R' F D' L U' L' F2 D' L' U' L R U' R' F D R' U R U2 R U2 R' U R U' R' D' L U L' U2 R U' R' D' R U U2 R' U R U' R' D' U2 R U R' D' R' F R F' R U U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y U' R U' R' F R' F' R y U2 R' F R F' R U R' y F U R U' R' F' U' R2 D' R U2 R' D R U2 R U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>F2 D' U2 F2 D' U F2 D' U F2 D U R U' R' D' U' R U' R' D' U' R U R' D' U' R U R' D' R' U R B' R B R' U2 R' F R F' R U R' y U2 R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.01496100425720215</v>
+        <v>0.003914833068847656</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R D B U R2 L F2 L D R2 R U D D L F B2 D D L R L L D2 F B F2 L B L R F R L U2 L2 B2 F F D</t>
+          <t>U2 U B D B R2 B2 L L B F U2 U F F2 D D L F B L2 R L F F B F F L B2 R L F R R B2 D U F R2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R2 U F2 D2 L U' L' F2 D' R U' R' F D R U R' D' L U L' U2 R U' R' D' R U R' D' U' R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R' F R F' R U R' y F R U R' U' F' U2 R2 D' R U2 R' D R U2 R U' R' U L' U2 R U' R' U2 R L U'</t>
+          <t>U' F2 D' U2 F2 D' R' U R F2 D' U2 F2 D R U U' R' D' L U L' U R U R' D' R' U R U2 R U' R' D' U2 R U2 R' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y U R' F R F' R U R' y U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U R U2 R2 U' R2 U' R2 U2 R U2 R' U L' U2 R U' R' U2 R L U2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01498031616210938</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>L D2 L D D2 U2 U B2 R B R F2 B L U D R R2 R2 D D2 F U F D R D U2 U B D R R B R B B R F F2</t>
+          <t>R R R D B F F B D D U L U B R B F U B U2 B2 L2 B B B U U L2 D L F L F R U F B L D2 R</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>L2 U' R U' R' F D' L' U' L F2 D' F2 R U' R' F D' U' F2 D R U' R' D' R U U' R' D' U R U2 R' U R U' R' D' U2 R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U' R U' R' F R' F' R y U R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' U R' U' R U' R' U2 R U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>B2 U2 F2 D' R' U R F2 D' L U' L' R U' R' F D' R U' R' F D R' U R U2 R U' R' D' U' R U2 R' U R U' R' D' U R U2 R' U R U' R' D' U R U2 R' U R U' R' D' U' R' F R F' R U R' y U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U2 R' F R F' R U R' y U2 F U R U' R' F' U' R U R' U R U2 R2 U L' U2 R U' R' U2 R L</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.01596617698669434</v>
+        <v>0.004995822906494141</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>F L B F R U L2 B2 R L2 D D F L2 L2 R B U F U F U B2 B B2 D L L U D R D L L D D D2 U L F2</t>
+          <t>R2 B U U U B U2 F2 U U2 R2 U U2 F U F U R D U L B R U R L B F U B R R F D F L R U F F</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R2 U F2 D' F2 R U' R' F D' R2 U R U' R' F D' F2 D U' R U R' D' L U L' U2 R U' R' D' R U R' U' R U R' D' R U U2 R' U R U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R U' R' F R' F' R y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' R' U' R U' R' U2 R U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>U2 F2 D' R U' R' F D' L' U' L F2 D' L U' L' R U' R' F D L U L' U2 R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U2 R U' R' D' U' R U' R' D' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U R' F R F' R U R' y U2 R' F R F' R U R' y F U R U' R' F' R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01396274566650391</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>L L F D U R B2 F B L B B F F D U D D F U2 D D2 B2 F F B2 F D U2 B2 R L2 L D2 D F L2 D D L</t>
+          <t>B F D F D L R F D B L F D B L F D R D F B R B B L U2 D U D U L L B R D F B D2 D R</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>D' U' F2 D' U R U' R' F D' R R' F D R U U' R' D' R U U' R' D' R U U' R' D' U2 R U R' D' L F' L' F L' U' L U' R' F R F' R U R' y U' R U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R' U2 R' D' R U2 R' D R2 U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
+          <t>L U' L' F2 D' R' U R F2 D' U R U' R' F D' U2 F2 D L' U' L U R U' R' D' U' R U R' D' R U U2 R' U R U' R' D' U R U R' D' U' R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U' R' F R F' R U R' y U2 R U' R' F R' F' R y L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01495885848999023</v>
+        <v>0.00299072265625</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>F U B L D B U R D D U D F U2 R R U B D2 F2 D B F R U L2 B L R2 D2 L R L L F L D L R L</t>
+          <t>F D B F R2 U2 D R2 B D L2 U R B F2 R2 B U D2 L U2 F D2 B R B L D U L2 U L L B B2 B U U D2 B2</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>L' U' L R U' R' F D' R2 U R U' R' F D' L' U' L R U' R' F D' R' U R F2 D R U U2 R' U R U' R' D' R U U2 R' U R U' R' D' U R U' R' D' U R U2 R' U R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y U R' F R F' R U R' y U R' F R F' R U R' y U2 F U R U' R' F' U2 R2 D' R U2 R' D R U2 R2 U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
+          <t>R U R' F2 D' U2 R U' R' F D' U2 F2 D' R U' R' F D R' U R U2 R U2 R' U R U' R' D' U R U' R' D' R U R' D' U R U' R' D' R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U' R U' R' F R' F' R y U2 R U' R' F R' F' R y F R U R' U' F' U R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.01595759391784668</v>
+        <v>0.005008935928344727</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>U F L2 R L D U L L L R U2 R U B U U R F F D F2 R B R D F D B2 R2 L L L2 F L R R B D2 D</t>
+          <t>U D D D R R B B B R D R L F2 D U R2 F U D L L L2 F U2 B R2 R B B U2 L L R B U D R R D2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>U2 R U' R' F D' R U R' F2 D' R R' F D' L' U' L F2 D U R U' R' D' U R U2 R' U R U' R' D' R' U R U R U R' D' R U U' R' D' R' U R B' R B R' U R U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y U F R U R' U' F' U2 R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
+          <t>U2 F2 D' B2 U2 F2 D' R' U R2 U' R' F D' F2 R U' R' F D L U L' U R U R' D' U' R U R' D' R U U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y U R U' R' F R' F' R y U R U' R' F R' F' R y F U R U' R' F' U F R U R' U' R U R' U' R U R' U' F' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01296544075012207</v>
+        <v>0.003998756408691406</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>D B B B B U B D B2 D D2 U D R D2 U2 L2 L L R F F F U F U F B R B D B F R2 L R D B U2 B2</t>
+          <t>U U R F F B D F R U D2 F F U2 U B2 F R U R F2 F R F L L D R F F2 U F B R U B R F L F</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>U' F2 D' U R U' R' F D' L' U' L F2 D' R' U R2 U' R' F D R U U' R' D' R' U R U R U R' D' R U R' U' R U R' D' U2 R U R' D' R' F R F' R U U' R' F R' F' R y U R U' R' F R' F' R y U' R U' R' F R' F' R y U' R' F R F' R U R' y U F R U R' U' F' U' R U R' U R U2 R2 U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>B2 U2 R U' R' F D' L U' L' F2 D' F2 D' U' R U' R' F D R U R' D' U' R U R' D' R U' R' D' U R U R' D' L U' L' B L' B' L U2 R' F R F' R U R' y U R U' R' F R' F' R y U2 R' F R F' R U R' y U R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' U' R' U' R U' R' U2 R U' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.01694989204406738</v>
+        <v>0.003995895385742188</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B D B2 F B D D2 B2 L B F D F U L D2 D R D B B U B2 L R B D R L2 R F B B2 D B D2 F L2 U2 U</t>
+          <t>D2 B F2 L R L U U2 F R R2 L2 D U F D F2 L L U D D D D2 D2 R R2 D R2 L B D F U B U F R2 B R2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R' U R2 U' R' F D' B2 U2 R U' R' F D' R R' F D' R' U R2 U' R' F D R' U R U2 R U' R' D' U R U2 R' U R U' R' D' R' U R U2 R U' R' D' U' R U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y U R U' R' F R' F' R y U' R' F R F' R U R' y U F R U R' U' F' R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U2</t>
+          <t>U' R U' R' F D' F2 D' R' U R F2 D' R' U R F2 D R U U' R' D' R U R' U' R U R' D' R U R' U' R U R' D' U' R U2 R' U R U' R' D' U2 R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U R' y U F R U R' U' F' U2 L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.01595592498779297</v>
+        <v>0.005304336547851562</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>F2 L D2 B L L D L2 L D D B B B R2 B F D2 B R F L R B R2 F B D F R F R L U2 L F R L D L</t>
+          <t>D B2 D U2 L2 U2 R L2 U2 L D2 B2 F2 L B L2 U L B2 F U D D2 D R2 R B U B F L B F2 R F2 B R L U U2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R U' R' F D' L U' L' R U' R' F D' R' U R2 U' R' F D' R U R' F2 D L U L' U R U R' D' R U U2 R' U R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U' R' D' U' R' F R F' R U R' y U2 R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y R U2 R2 F R F' U2 R' F R F' U R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>R2 U R U' R' F D' R2 U F2 D' U' R U' R' F D' U F2 D U R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R U R' U' R U R' D' R U R' U' R U R' D' L U' L' B L' B' L U2 R' F R F' R U R' y U R U' R' F R' F' R y R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y F R U R' U' F' R U R' U R U2 R' U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.01695585250854492</v>
+        <v>0.005003213882446289</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B2 L U2 R2 B2 U B R F F U F U2 L R R F R B F2 U L D D R D2 L L2 B D D2 D L2 R F2 R B R R L2</t>
+          <t>B L R D F D2 D B2 D2 F D D F B R D R R D F D2 B D U B F L2 L F2 B F2 R2 D2 R2 R L L U F2 U2</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' L' U' L R U' R' F D' R U R' F2 D' F2 R U' R' F D R U2 R' U R U' R' D' L U L' U R U R' D' U2 R U2 R' U R U' R' D' U2 R U R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U' R' F R F' R U R' y U2 R U' R' F R' F' R y U R U' R' F R' F' R y U F U R U' R' F' U R' U' R U' R' U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
+          <t>F2 D2 U2 R U' R' F L U L' U R U R' D' U2 R U R' D' R' U R U2 R U2 R' U R U' R' D' U R U R' D' L U' L' B L' B' L U R U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y U' R U' R' F R' F' R y U2 R U' R' F R' F' R y U F R U R' U' R U R' U' R U R' U' R U R' U' F' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.0139613151550293</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R F R R U2 L F2 B D L F L D B2 U U2 B B D2 B B2 B U B L U U R F D2 R R2 F F L2 F U U U U</t>
+          <t>F U R F D F2 U F U F B R R R2 L D U R R2 U R B L2 F2 U U2 L F L B D B F L F R U F R U</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R2 U R U' R' F D' F2 D' U' R U' R' F D' L U' L' F2 D U R U R' D' R U U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U' R U' R' D' U2 R' F R F' R U R' y U2 R' F R F' R U R' y U2 R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' F' U R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>R' U R2 U' R' F D' R U' R' F D' R U' R' F D' U F2 D L' U' L U R U' R' D' U R U R' D' R U R' U' R U R' D' U R U R' D' U R' F R F' R U R' y U' R U' R' F R' F' R y U R' F R F' R U R' y U R U' R' F R' F' R y F U R U' R' F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.01398324966430664</v>
+        <v>0.00499415397644043</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B F2 F L B U R2 B R2 R2 F B F R F D F L2 B F2 D2 B B D2 D D F F B R B2 F2 B B F F F L2 B2 F</t>
+          <t>D B2 U2 B F U B F R B L U2 R L D D U R R F R D2 F2 D U D B D2 D D B U F F R R2 R D L U</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>U' R U' R' F D' R2 U R U' R' F D' U R U' R' F D' F2 D U2 R U' R' D' L U L' U2 R U2 R' U R U' R' D' U2 R U R' D' U' R U R' D' R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U2 R' F R F' R U R' y R' F R F' R U R' y U F R U R' U' F' U2 R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2 U2</t>
+          <t>R2 U F2 D' R' U R F2 D' L' U' L R U' R' F D' U F2 D U R U2 R' U R U' R' D' U R U' R' D' R U R' D' U' R U' R' D' U' R' F R F' R U R' y U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R U' R' F R' F' R y U F R U R' U' F' U' R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.01693153381347656</v>
+        <v>0.004997491836547852</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B B2 F D2 D R U2 R F2 U B R D F2 L L2 B2 D F D2 B F2 L U2 L2 U U2 D L B L L L2 F B2 U F U U D</t>
+          <t>U D F U R U B2 B2 L2 D F2 U L L U B2 D2 D U2 D L U2 B F F2 L D F2 B U D2 F L F B2 U D D R B2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>B2 U2 R U' R' F D' L U' L' R U' R' F D' F2 R U' R' F D' L U' L' F2 D R' U R U R U R' D' L U L' U2 R U' R' D' R U R' U' R U R' D' U2 R U R' D' U' R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y F R U R' U' F' U R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U</t>
+          <t>R2 U R U' R' F D' R' U R2 U' R' F D2 U2 R U' R' F D R U R' U' R U R' D' R' U R U2 R U2 R' U R U' R' D' R U R' D' U' R U2 R' U R U' R' D' U' R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' R' F R F' R U R' y F U R U' R' F' R' U2 R' D' R U2 R' D R2 U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.01694178581237793</v>
+        <v>0.005000591278076172</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>U2 B2 F B U U U R F U F U2 F2 U2 D2 D R R F R R F L2 B B U L B B B2 D2 L2 L L L F2 R D R2 F</t>
+          <t>D D D D B F B B L B F U U F F D U R F2 R2 B R2 R R2 R D2 U2 F U L L L B R B R2 B2 B U B</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R' U R2 U' R' F D' L' U' L F2 D' U' F2 D' F2 R U' R' F D U2 R U' R' D' U2 R U' R' D' R' U R U2 R U' R' D' U2 R U R' D' U2 R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y F R U R' U' F' U F R U R' U' R U R' U' R U R' U' F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>F2 D' R' U R2 U' R' F D' R' U R F2 D' L' U' L R U' R' F D R U' R' D' R U U2 R' U R U' R' D' R U R' U' R U R' D' U' R U' R' D' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U2 R U' R' F R' F' R y U F U R U' R' F' U R2 D' R U2 R' D R U2 R U' R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.01296854019165039</v>
+        <v>0.005687475204467773</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R U U R2 R R L2 U L L R2 F L R F2 R2 R U L D B2 U U L2 L F2 B L L U U F F2 F B2 B L D2 F U</t>
+          <t>R2 B B L L U2 B R F R2 D F R U F2 U U U L F2 U B F D B2 F2 R L D2 B L D D L U B U R2 L D2</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' U' F2 D' U F2 D' L' U' L R U' R' F D L' U' L U R U' R' D' U R U' R' D' R U R' D' U R U R' D' R' F R F' R U R' y U2 R U' R' F R' F' R y U' R U' R' F R' F' R y R U' R' F R' F' R y F U R U' R' F' U' L F R' F' L' F R F' U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2</t>
+          <t>R2 U F2 D' R U' R' F D' U2 R U' R' F D' U' F2 D U' R U' R' D' U2 R U' R' D' R U' R' D' U2 R U2 R' U R U' R' D' R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U R' y U2 R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01496005058288574</v>
+        <v>0.0040435791015625</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>D2 D F D U F2 U L U R L F B D R R R U U R R U2 L L2 D2 F2 L L B2 D L D D D L D2 D2 B2 R2 B</t>
+          <t>F L2 D F F B U B U2 B2 B D B R U2 D B2 L U R D2 L R F2 F U R2 R U F2 B B U2 R D R B2 D L2 D2</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R2 U R U' R' F D' B2 U2 F2 D' R2 U R U' R' F D' U F2 D R U2 R' U R U' R' D' U' R U' R' D' R U' R' D' U' R U R' D' R' F R F' R U R' y U2 R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U2 F U R U' R' F' U' R U R' U R U2 R' U R U' R U R U R U' R' U' R2 U' R U' R U R U R U' R' U' R2 U</t>
+          <t>D' U2 R U' R' F D' U' F2 D' L' U' L F2 D L U L' U R U R' D' L U L' U2 R U2 R' U R U' R' D' U2 R U' R' D' U R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y U2 R' F R F' R U R' y U R' F R F' R U R' y U' R' F R F' R U R' y U2 F U R U' R' F' U R U R' U R U2 R2 U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.01097297668457031</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>D2 R U D B2 L F2 U D F U D2 B F F F R2 U B R D L U2 B2 D2 D R B D R R B2 D2 D D L2 B L2 L2 R</t>
+          <t>U D2 U U D L2 D R D R2 R2 U B L2 B2 F B D D R U R B F2 F D B F L U U R D D U F B D R F</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>F2 D2 U2 F2 D' L U' L' R U' R' F D R U U2 R' U R U' R' D' U R U2 R' U R U' R' D' R U U' R' D' R U R' U' R U R' D' L U' L' B L' B' L U2 R' F R F' R U R' y U' R U' R' F R' F' R y R' F R F' R U R' y U R' F R F' R U R' y U2 F U R U' R' F' U2 R' U2 R' D' R U2 R' D R2 U R' U L' U2 R U' R' U2 R L U</t>
+          <t>F2 D' F2 D' R U R' F2 D' U2 R U' R' F D U' R U' R' D' R U' R' D' U2 R U R' D' R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y F R U R' U' F' U2 R U2 R2 U' R2 U' R2 U2 R U' R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.01797914505004883</v>
+        <v>0.004573345184326172</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>F R B U D2 F B L U R U L2 B2 B2 D F R2 R R R L R R D U U R D B2 B B2 B R R L D2 F2 D F L</t>
+          <t>R U B2 B F U R D2 D U D L D2 R2 L U B F D U R D B R F R2 R R D L L2 D2 B B2 F U L U B2 B</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' R' U R2 U' R' F D' L' U' L R U' R' F D' R U R' F2 D U R U R' D' U R U2 R' U R U' R' D' U2 R U R' D' U2 R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U' R' F R F' R U R' y U F U R U' R' F' U' R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
+          <t>R U' R' F D' F2 D' L U' L' F2 R U R' D' U' R U R' D' R U2 R' U R U' R' D' U R U' R' D' U R' F R F' R U R' y U2 R' F R F' R U R' y R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y U2 F U R U' R' F' U L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.01395893096923828</v>
+        <v>0.0040130615234375</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>L L B2 F F L2 B L D L R2 L L L F D U U R2 F L D R U B F F R L U U F2 L B L B U L2 D B2</t>
+          <t>L U B R F2 F B2 L2 F2 D L F B2 F U D R D F B B U U R F2 F L D R U2 L U L2 F B R2 B B L U</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>U2 F2 D' U2 R U' R' F D' R2 U F2 D' F2 R U' R' F D R U' R' D' U' R U R' D' U2 R U' R' D' R U U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y U2 R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' U' R U2 R2 U' R2 U' R2 U' L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U'</t>
+          <t>U2 F2 D' F2 D' F2 D' R' U R F2 D R' U R U R U R' D' U R U2 R' U R U' R' D' U2 R U R' D' R U2 R' U R U' R' D' U2 R' F R F' R U R' y U' R U' R' F R' F' R y U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U L F R' F' L' F R F' U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.01595973968505859</v>
+        <v>0.00600433349609375</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>F F D F L2 F L R L2 D2 B2 F R2 D2 L B D U2 F B L2 L B R F R2 F D L D U D R B F R B D B U</t>
+          <t>U R2 B U L B F2 L F2 R R D R L B B2 D2 F R L R2 U2 F2 D U2 U R D L2 U F B D2 D2 R L F B F R</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>U2 R U' R' F D' R U R' F2 D' U2 F2 D' U' R U' R' F D L' U' L U R U2 R' U R U' R' D' U R U2 R' U R U' R' D' R U2 R' U R U' R' D' U2 R U2 R' U R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U' F U R U' R' F' U' R2 D' R U2 R' D R U2 R U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U'</t>
+          <t>U R U' R' F D' R U R' F2 D' L U' L' R U' R' F D' L U' L' F2 D L' U' L U R U2 R' U R U' R' D' L U L' U2 R U' R' D' R U U' R' D' U2 R U' R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U' R' F R F' R U R' y R U2 R2 F R F' U2 R' F R F' U F R U R' U' R U R' U' R U R' U' F' R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.01394200325012207</v>
+        <v>0.004993438720703125</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>F R R U L L U L U2 B B2 B2 F L F D2 F F2 B2 F B2 L U2 U U2 U2 F L B2 R2 D R2 U2 B2 F L R F2 D B</t>
+          <t>B B D D R B L2 U F D F2 L L B U D R F F F D2 D L D U L D2 R B B2 D U2 B L F L2 L U2 D B2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R' U R F2 D' U R U' R' F D2 F2 D U2 R U R' D' R U2 R' U R U' R' D' U' R U2 R' U R U' R' D' U R U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y U' R U' R' F R' F' R y U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U' F U R U' R' F' R U R' U R U2 R' U' R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R2</t>
+          <t>L' U' L R U' R' F D' F2 D' L U' L' R U' R' F D' U' R U' R' F D L' U' L U R U2 R' U R U' R' D' U R U' R' D' R U R' D' U' R U R' D' L U' L' B L' B' L U2 R' F R F' R U R' y R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F R U R' U' F' U R2 D' R U2 R' D R U2 R U2 R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.0139617919921875</v>
+        <v>0.004007577896118164</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>R2 B L2 R R D B L F F R L R L2 B2 L U F2 B F U R R D U R B U R2 F F F L F D2 R2 F2 R D F</t>
+          <t>U L2 R R B U F2 L2 F R B L B D2 D F2 B D2 B R R R U D D F R D2 F L2 B L R U2 B U U D2 D B</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R U' R' F D' U2 R U' R' F D' R U R' F2 D' L' U' L F2 D U' R U2 R' U R U' R' D' U R U R' D' U R U2 R' U R U' R' D' U R U R' D' U2 R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y R' F R F' R U R' y U F R U R' U' F' U R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>R2 U F2 D' U2 F2 D' U2 R U' R' F D' L U' L' R U' R' F D R U U2 R' U R U' R' D' R U R' U' R U R' D' U R U R' D' U' R U2 R' U R U' R' D' U R' F R F' R U R' y R' U R B' R B R' U R U' R' F R' F' R y U' R U' R' F R' F' R y U' R' F R F' R U R' y U F U R U' R' F' U R U2 R2 U' R2 U' R2 U2 R U R' U L' U2 R U' R' U2 R L U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.01497149467468262</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B U U L R2 B R U D B U R B B B2 D2 R L L L B L2 L2 L D2 F2 F R B R L2 L R2 L R2 L2 R2 F L F</t>
+          <t>F2 F2 R U D U R D B2 L U U2 F F U F U2 F D D B F B L U F R2 U2 R2 L2 B L R F L U2 L B2 R D</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>L' U' L R U' R' F D' L' U' L R U' R' F D' U F2 D' U2 F2 D U2 R U R' D' R' U R U2 R U' R' D' R U R' D' U' R U2 R' U R U' R' D' U2 R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y F R U R' U' F' R' U' R U' R' U2 R U2 R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>L' U' L R U' R' F D' R R' F D' U2 F2 D' U2 F2 D U R U' R' D' R U R' D' R U U' R' D' U R U R' D' L F' L' F L' U' L U' R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U R' F R F' R U R' y F U R U' R' F' R U2 R2 U' R2 U' R2 U2 U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U'</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.01392269134521484</v>
+        <v>0.004006147384643555</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>L R2 F2 R D F L D R2 R2 U2 B F L B R2 U F2 U U2 B F2 U2 B L U L2 B B2 R2 F R D2 L R2 F F U F2 L</t>
+          <t>R D R2 U R U R B F U U R2 D L F2 D2 R F U B R F U D2 R B F L R D U L B D F B R F F D</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>U' F2 D' L' U' L F2 D' R R' F D' F2 D R U U2 R' U R U' R' D' U' R U2 R' U R U' R' D' R U R' U' R U R' D' R U2 R' U R U' R' D' R' U R B' R B R' U R U' R' F R' F' R y L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U2 R U' R' F R' F' R y U2 F U R U' R' F' U2 R' U2 R' D' R U2 R' D R U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U2</t>
+          <t>U R U' R' F D' F2 R U' R' F D' U' R U' R' F D' L' U' L F2 D R U U2 R' U R U' R' D' U2 R U R' D' U R U2 R' U R U' R' D' U R U R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U R' y R' F R F' R U R' U R' F R F' R U R' y U2 R U' R' F R' F' R y F U R U' R' F' U' R' U' R U' R' U' L' U2 R U' R' U2 R L U' R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.01396369934082031</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B2 L2 R R2 B R F U L2 U R F L U U B D L R2 L D D2 D D D D2 L R2 B L2 F F R2 R L L D B R U2</t>
+          <t>L D R F2 D D U D F F R B B R D L2 B L2 R2 F D2 D R D L2 U B2 B R2 U2 U L L2 R F B F R D2 R</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F2 R U' R' F D' F2 R U' R' F D' R U' R' F D' L' U' L F2 D L' U' L U R U' R' D' U2 R U2 R' U R U' R' D' U R U R' D' U R U' R' D' R U' R' F R' F' R y R U' R' F R' F' R y U' R' F R F' R U R' y R' F R F' R U R' y U' R' U' R U' R' U2 R U R U' R U R U R U' R' U' R' U' R U R U R U' R' U' R2 U2</t>
+          <t>B2 U2 F2 D' U2 F2 D' L' U' L R U' R' F D' R' U R2 U' R' F D U' R U' R' D' U2 R U' R' D' U' R U2 R' U R U' R' D' U R U2 R' U R U' R' D' L F' L' F L' U' L U' R' F R F' R U R' y R U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y U2 R U' R' F R' F' R y U' F U R U' R' F' R U2 R2 U' R2 U' R2 U2 R U' R U' R U R U R U' R' U' R2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.01496434211730957</v>
+        <v>0.003991842269897461</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>B B R2 R2 F D L F D L U R L B B2 L F2 R D B U R2 U F L R R2 B U2 F2 F L D F2 R L U L2 U2 L</t>
+          <t>R2 R R2 U B L U F L2 U B L F R U B B D B L2 F U2 L B2 F L L F F D L U L D2 R2 L R B L D</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>L2 U' F2 D' R' U R2 U' R' F D' R2 U F2 D' U' F2 D R U U2 R' U R U' R' D' U R U2 R' U R U' R' D' R U R' U' R U R' D' U2 R U' R' D' R' U R B' R B R' U2 R' F R F' R U R' y L U' L' B L' B' L U R U' R' F R' F' R y U' R' F R F' R U R' y U R' F R F' R U R' y F U R U' R' F' U F R U R' U' R U R' U' R U R' U' F' U R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U2</t>
+          <t>L2 U' F2 D' U' F2 D' U F2 D' R' U R2 U' R' F D U R U R' D' U R U2 R' U R U' R' D' R' U R U2 R U2 R' U R U' R' D' R U' R' D' L U' L' B L' B' L U2 R' F R F' R U R' y L U' L' B L' B' L U2 R' F R F' R U R' y R' F R F' R U R' y U R U' R' F R' F' R y U' F U R U' R' F' U2 L F R' F' L' F R F' R' U L' U2 R U' R' U2 R L U2 R U' R U R U R U' R' U' R2 U</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.01198625564575195</v>
+        <v>0.005006074905395508</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>R F F B L F L R F B B2 R R D2 F R2 B U L D2 L L D B D R2 L F D R L D U U L R R F2 L2 R</t>
+          <t>D2 U2 D2 R L R B2 L2 R B2 L B D U D D R B2 U B2 D B2 R2 L D R L U F L U B B R U D B L D D</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>U2 F2 D' U R U' R' F D' R' U R2 U' R' F D' L U' L' F2 D U' R U R' D' R U' R' D' U2 R U2 R' U R U' R' D' R U R' D' U' R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U' R' F R F' R U R' y R' F R F' R U U' R' F R' F' R y U F U R U' R' F' U2 R U2 R2 U' R2 U' R2 U2 R2 U' R U R U R U' R' U' R2 U</t>
+          <t>L' U' L R U' R' F D' L' U' L F2 D' R2 U R U' R' F D' L U' L' F2 D R' U R U R U R' D' R U' R' D' U2 R U' R' D' U' R U2 R' U R U' R' D' R' F R F' R U U' R' F R' F' R y R' U R B' R B R' U R U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y R U' R' F R' F' R y U R2 D' R U2 R' D R U2 R U' R' U L' U2 R U' R' U2 R L U</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.01795268058776855</v>
+        <v>0.004987955093383789</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>D U2 U R B L B R B2 R L U U2 F2 B2 F B2 D2 R D2 D U D U2 D B F L2 D D2 R B2 F B B F D2 F U R</t>
+          <t>F L B L R F2 U F2 D2 D F U2 L L U2 R2 F L F L R B F2 D L2 F L2 L R R L B L R B2 L D2 R B B2</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>F2 D' R U' R' F D' R2 U R U' R' F D' F2 R U' R' F D U' R U' R' D' L U L' U2 R U2 R' U R U' R' D' R U U2 R' U R U' R' D' R U R' D' L U' L' B L' B' L U R U' R' F R' F' R y R' U R B' R B R' U2 R' F R F' R U R' y R' U R B' R B R' U2 R' F R F' R U R' y U' R' F R F' R U R' y U' F U R U' R' F' U R U R' U R U2 R' U R' U L' U2 R U' R' U2 R L U R' U L' U2 R U' R' U2 R L R U' R U R U R U' R' U' R2 U R U' R U R U R U' R' U' R2 U</t>
+          <t>L U' L' F2 D' R R' F D' U2 R U' R' F D' U' F2 D L' U' L U R U2 R' U R U' R' D' L U L' U R U R' D' U R U2 R' U R U' R' D' R U U' R' D' L F' L' F L' U' L U2 R U' R' F R' F' R y L U' L' B L' B' L U R U' R' F R' F' R y R' F R F' R U U' R' F R' F' R y R' F R F' R U R' U R' F R F' R U R' y U F U R U' R' F' L F R' F' L' F R F' U2 R' U L' U2 R U' R' U2 R L</t>
         </is>
       </c>
     </row>
